--- a/Database/Excel/Product groups/Встраиваемая техника/Вытяжки.xlsx
+++ b/Database/Excel/Product groups/Встраиваемая техника/Вытяжки.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Вытяжки ВСТР'!$B$1:$Q$262</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1792,9 +1792,6 @@
     <t>встраиваемая в потолок</t>
   </si>
   <si>
-    <t>Con @ ctivity 2.0 система сопряжения с плитой</t>
-  </si>
-  <si>
     <t>Вытяжка Miele DA3496</t>
   </si>
   <si>
@@ -1973,13 +1970,16 @@
   </si>
   <si>
     <t>Максимальная производительность (м³/ч)</t>
+  </si>
+  <si>
+    <t>Con@ctivity 2.0 система сопряжения с плитой</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2148,6 +2148,14 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2520,7 +2528,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2563,8 +2571,12 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2579,8 +2591,11 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2608,6 +2623,7 @@
     <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Гиперссылка" xfId="42" builtinId="8"/>
     <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -2994,7 +3010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3054,7 +3070,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>5</v>
@@ -3063,10 +3079,10 @@
         <v>8</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>10</v>
@@ -3078,7 +3094,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>7</v>
@@ -3123,7 +3139,7 @@
         <v>70</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>24</v>
@@ -3175,7 +3191,7 @@
         <v>52</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>24</v>
@@ -3229,7 +3245,7 @@
         <v>45</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>30</v>
@@ -3281,7 +3297,7 @@
         <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>24</v>
@@ -3333,7 +3349,7 @@
         <v>69</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>24</v>
@@ -3385,7 +3401,7 @@
         <v>62</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>24</v>
@@ -3439,7 +3455,7 @@
         <v>52</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>24</v>
@@ -3493,7 +3509,7 @@
         <v>56</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>24</v>
@@ -3547,7 +3563,7 @@
         <v>45</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>30</v>
@@ -3599,7 +3615,7 @@
         <v>62</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>24</v>
@@ -3651,7 +3667,7 @@
         <v>69</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>24</v>
@@ -3703,7 +3719,7 @@
         <v>69</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>24</v>
@@ -3755,7 +3771,7 @@
         <v>69</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>24</v>
@@ -3807,7 +3823,7 @@
         <v>73</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>24</v>
@@ -3859,7 +3875,7 @@
         <v>73</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>24</v>
@@ -3911,7 +3927,7 @@
         <v>75</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>24</v>
@@ -3963,7 +3979,7 @@
         <v>79</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>24</v>
@@ -4015,7 +4031,7 @@
         <v>79</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>24</v>
@@ -4067,7 +4083,7 @@
         <v>79</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>24</v>
@@ -4119,7 +4135,7 @@
         <v>78</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>24</v>
@@ -4171,7 +4187,7 @@
         <v>79</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>24</v>
@@ -4223,7 +4239,7 @@
         <v>79</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>24</v>
@@ -4275,7 +4291,7 @@
         <v>79</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>24</v>
@@ -4327,7 +4343,7 @@
         <v>72</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>24</v>
@@ -4379,7 +4395,7 @@
         <v>73</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>24</v>
@@ -4431,7 +4447,7 @@
         <v>79</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>24</v>
@@ -4483,7 +4499,7 @@
         <v>79</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>24</v>
@@ -4537,7 +4553,7 @@
         <v>68</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>24</v>
@@ -4591,7 +4607,7 @@
         <v>68</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>24</v>
@@ -4630,7 +4646,7 @@
         <v>57</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>18</v>
@@ -4645,7 +4661,7 @@
         <v>67</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>24</v>
@@ -4699,7 +4715,7 @@
         <v>68</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>24</v>
@@ -4753,7 +4769,7 @@
         <v>68</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>24</v>
@@ -4807,7 +4823,7 @@
         <v>64</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>24</v>
@@ -4861,7 +4877,7 @@
         <v>69</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>24</v>
@@ -4915,7 +4931,7 @@
         <v>69</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>24</v>
@@ -4969,7 +4985,7 @@
         <v>67</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>30</v>
@@ -5023,7 +5039,7 @@
         <v>66</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>30</v>
@@ -5077,7 +5093,7 @@
         <v>67</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>24</v>
@@ -5131,7 +5147,7 @@
         <v>65</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>24</v>
@@ -5185,7 +5201,7 @@
         <v>64</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>24</v>
@@ -5237,7 +5253,7 @@
         <v>71</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>124</v>
@@ -5289,7 +5305,7 @@
         <v>62</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>124</v>
@@ -5341,7 +5357,7 @@
         <v>63</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>124</v>
@@ -5393,7 +5409,7 @@
         <v>63</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>124</v>
@@ -5445,7 +5461,7 @@
         <v>63</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>124</v>
@@ -5497,7 +5513,7 @@
         <v>63</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>124</v>
@@ -5551,7 +5567,7 @@
         <v>56</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>24</v>
@@ -5659,7 +5675,7 @@
         <v>59</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>24</v>
@@ -5711,7 +5727,7 @@
         <v>63</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>24</v>
@@ -5763,7 +5779,7 @@
         <v>63</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>24</v>
@@ -5869,7 +5885,7 @@
         <v>64</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>24</v>
@@ -5923,7 +5939,7 @@
         <v>71</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>24</v>
@@ -5977,7 +5993,7 @@
         <v>52</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>24</v>
@@ -6031,7 +6047,7 @@
         <v>64</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>24</v>
@@ -6085,7 +6101,7 @@
         <v>66</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>24</v>
@@ -6139,7 +6155,7 @@
         <v>63</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>24</v>
@@ -6193,7 +6209,7 @@
         <v>64</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>24</v>
@@ -6247,7 +6263,7 @@
         <v>63</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>24</v>
@@ -6301,7 +6317,7 @@
         <v>63</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>24</v>
@@ -6355,7 +6371,7 @@
         <v>59</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>24</v>
@@ -6411,7 +6427,7 @@
         <v>59</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>24</v>
@@ -6451,7 +6467,7 @@
         <v>29</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>22</v>
@@ -6463,7 +6479,7 @@
         <v>67</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>24</v>
@@ -6515,7 +6531,7 @@
         <v>62</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>24</v>
@@ -6535,7 +6551,7 @@
         <v>184</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
@@ -6569,7 +6585,7 @@
         <v>72</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>24</v>
@@ -6587,7 +6603,7 @@
         <v>186</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
@@ -6621,7 +6637,7 @@
         <v>72</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>24</v>
@@ -6639,7 +6655,7 @@
         <v>187</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
@@ -6661,7 +6677,7 @@
         <v>185</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>22</v>
@@ -6673,7 +6689,7 @@
         <v>72</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>24</v>
@@ -6691,7 +6707,7 @@
         <v>188</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
@@ -6725,7 +6741,7 @@
         <v>72</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>24</v>
@@ -6777,7 +6793,7 @@
         <v>67</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>24</v>
@@ -6829,7 +6845,7 @@
         <v>67</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>24</v>
@@ -6881,7 +6897,7 @@
         <v>70</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>24</v>
@@ -6935,7 +6951,7 @@
         <v>64</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>30</v>
@@ -6989,7 +7005,7 @@
         <v>70</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>30</v>
@@ -7043,7 +7059,7 @@
         <v>70</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>30</v>
@@ -7095,7 +7111,7 @@
         <v>70</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>24</v>
@@ -7149,7 +7165,7 @@
         <v>69</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>30</v>
@@ -7201,7 +7217,7 @@
         <v>72</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>24</v>
@@ -7255,7 +7271,7 @@
         <v>56</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>24</v>
@@ -7309,7 +7325,7 @@
         <v>52</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>30</v>
@@ -7363,7 +7379,7 @@
         <v>62</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>30</v>
@@ -7415,7 +7431,7 @@
         <v>76</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>24</v>
@@ -7467,7 +7483,7 @@
         <v>76</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>24</v>
@@ -7519,7 +7535,7 @@
         <v>67</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>24</v>
@@ -7571,7 +7587,7 @@
         <v>75</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>24</v>
@@ -7623,7 +7639,7 @@
         <v>75</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>24</v>
@@ -7675,7 +7691,7 @@
         <v>75</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>24</v>
@@ -7727,7 +7743,7 @@
         <v>75</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>24</v>
@@ -7779,7 +7795,7 @@
         <v>67</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>24</v>
@@ -7831,7 +7847,7 @@
         <v>67</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>24</v>
@@ -7883,7 +7899,7 @@
         <v>68</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>141</v>
@@ -7935,7 +7951,7 @@
         <v>55</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>141</v>
@@ -7987,7 +8003,7 @@
         <v>71</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>24</v>
@@ -8039,7 +8055,7 @@
         <v>62</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>30</v>
@@ -8091,7 +8107,7 @@
         <v>70</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>24</v>
@@ -8145,7 +8161,7 @@
         <v>59</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>30</v>
@@ -8199,7 +8215,7 @@
         <v>65</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>30</v>
@@ -8253,7 +8269,7 @@
         <v>67</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>30</v>
@@ -8305,7 +8321,7 @@
         <v>67</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>24</v>
@@ -8357,7 +8373,7 @@
         <v>69</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>141</v>
@@ -8409,7 +8425,7 @@
         <v>66</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O102" s="2" t="s">
         <v>24</v>
@@ -8461,7 +8477,7 @@
         <v>70</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>24</v>
@@ -8513,7 +8529,7 @@
         <v>63</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>24</v>
@@ -8553,7 +8569,7 @@
         <v>29</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>22</v>
@@ -8565,7 +8581,7 @@
         <v>70</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O105" s="2" t="s">
         <v>24</v>
@@ -8617,7 +8633,7 @@
         <v>62</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>24</v>
@@ -8671,7 +8687,7 @@
         <v>70</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>24</v>
@@ -8723,7 +8739,7 @@
         <v>66</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O108" s="2" t="s">
         <v>24</v>
@@ -8775,7 +8791,7 @@
         <v>67</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>24</v>
@@ -8827,7 +8843,7 @@
         <v>67</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O110" s="2" t="s">
         <v>24</v>
@@ -8879,7 +8895,7 @@
         <v>62</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O111" s="2" t="s">
         <v>24</v>
@@ -8930,10 +8946,10 @@
         <v>780</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O112" s="2" t="s">
         <v>24</v>
@@ -8985,7 +9001,7 @@
         <v>58</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>24</v>
@@ -9039,7 +9055,7 @@
         <v>75</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="O114" s="2" t="s">
         <v>30</v>
@@ -9091,7 +9107,7 @@
         <v>66</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O115" s="2" t="s">
         <v>24</v>
@@ -9145,7 +9161,7 @@
         <v>62</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O116" s="2" t="s">
         <v>30</v>
@@ -9199,7 +9215,7 @@
         <v>66</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>141</v>
@@ -9250,10 +9266,10 @@
         <v>910</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O118" s="2" t="s">
         <v>30</v>
@@ -9307,7 +9323,7 @@
         <v>61</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O119" s="2" t="s">
         <v>30</v>
@@ -9361,7 +9377,7 @@
         <v>61</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>30</v>
@@ -9413,7 +9429,7 @@
         <v>63</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O121" s="2" t="s">
         <v>24</v>
@@ -9465,7 +9481,7 @@
         <v>63</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O122" s="2" t="s">
         <v>24</v>
@@ -9517,7 +9533,7 @@
         <v>63</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O123" s="2" t="s">
         <v>24</v>
@@ -9569,7 +9585,7 @@
         <v>63</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O124" s="2" t="s">
         <v>24</v>
@@ -9621,7 +9637,7 @@
         <v>63</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>24</v>
@@ -9673,7 +9689,7 @@
         <v>63</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O126" s="2" t="s">
         <v>24</v>
@@ -9725,7 +9741,7 @@
         <v>72</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O127" s="2" t="s">
         <v>24</v>
@@ -9777,7 +9793,7 @@
         <v>72</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O128" s="2" t="s">
         <v>24</v>
@@ -9829,7 +9845,7 @@
         <v>72</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O129" s="2" t="s">
         <v>24</v>
@@ -9881,7 +9897,7 @@
         <v>72</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>24</v>
@@ -9933,7 +9949,7 @@
         <v>72</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O131" s="2" t="s">
         <v>24</v>
@@ -9985,7 +10001,7 @@
         <v>72</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O132" s="2" t="s">
         <v>24</v>
@@ -10037,7 +10053,7 @@
         <v>71</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O133" s="2" t="s">
         <v>24</v>
@@ -10089,7 +10105,7 @@
         <v>72</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O134" s="2" t="s">
         <v>24</v>
@@ -10141,7 +10157,7 @@
         <v>72</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O135" s="2" t="s">
         <v>24</v>
@@ -10193,7 +10209,7 @@
         <v>70</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O136" s="2" t="s">
         <v>24</v>
@@ -10245,7 +10261,7 @@
         <v>71</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O137" s="2" t="s">
         <v>24</v>
@@ -10297,7 +10313,7 @@
         <v>72</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O138" s="2" t="s">
         <v>24</v>
@@ -10349,7 +10365,7 @@
         <v>70</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O139" s="2" t="s">
         <v>24</v>
@@ -10401,7 +10417,7 @@
         <v>73</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O140" s="2" t="s">
         <v>24</v>
@@ -10453,7 +10469,7 @@
         <v>72</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O141" s="2" t="s">
         <v>24</v>
@@ -10505,7 +10521,7 @@
         <v>62</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O142" s="2" t="s">
         <v>24</v>
@@ -10545,7 +10561,7 @@
         <v>29</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K143" s="2" t="s">
         <v>22</v>
@@ -10557,7 +10573,7 @@
         <v>62</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O143" s="2" t="s">
         <v>24</v>
@@ -10597,7 +10613,7 @@
         <v>29</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>22</v>
@@ -10609,7 +10625,7 @@
         <v>62</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O144" s="2" t="s">
         <v>24</v>
@@ -10661,7 +10677,7 @@
         <v>72</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O145" s="2" t="s">
         <v>24</v>
@@ -10769,7 +10785,7 @@
         <v>73</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O147" s="2" t="s">
         <v>24</v>
@@ -10821,7 +10837,7 @@
         <v>67</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O148" s="2" t="s">
         <v>24</v>
@@ -10873,7 +10889,7 @@
         <v>64</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O149" s="2" t="s">
         <v>24</v>
@@ -10913,7 +10929,7 @@
         <v>29</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>22</v>
@@ -10925,7 +10941,7 @@
         <v>62</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O150" s="2" t="s">
         <v>24</v>
@@ -10981,7 +10997,7 @@
         <v>69</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O151" s="2" t="s">
         <v>30</v>
@@ -11033,7 +11049,7 @@
         <v>67</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O152" s="2" t="s">
         <v>24</v>
@@ -11085,7 +11101,7 @@
         <v>65</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O153" s="2" t="s">
         <v>24</v>
@@ -11137,7 +11153,7 @@
         <v>65</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O154" s="2" t="s">
         <v>24</v>
@@ -11189,7 +11205,7 @@
         <v>67</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O155" s="2" t="s">
         <v>24</v>
@@ -11241,7 +11257,7 @@
         <v>72</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O156" s="2" t="s">
         <v>24</v>
@@ -11293,7 +11309,7 @@
         <v>67</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O157" s="2" t="s">
         <v>24</v>
@@ -11345,7 +11361,7 @@
         <v>70</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O158" s="2" t="s">
         <v>24</v>
@@ -11399,7 +11415,7 @@
         <v>64</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O159" s="2" t="s">
         <v>30</v>
@@ -11451,7 +11467,7 @@
         <v>58</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O160" s="2" t="s">
         <v>24</v>
@@ -11557,7 +11573,7 @@
         <v>71</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O162" s="2" t="s">
         <v>24</v>
@@ -11609,7 +11625,7 @@
         <v>67</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O163" s="2" t="s">
         <v>24</v>
@@ -11661,7 +11677,7 @@
         <v>67</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O164" s="2" t="s">
         <v>24</v>
@@ -11701,7 +11717,7 @@
         <v>29</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K165" s="2" t="s">
         <v>22</v>
@@ -11713,7 +11729,7 @@
         <v>62</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O165" s="2" t="s">
         <v>24</v>
@@ -11767,7 +11783,7 @@
         <v>64</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O166" s="2" t="s">
         <v>24</v>
@@ -11819,7 +11835,7 @@
         <v>71</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O167" s="2" t="s">
         <v>24</v>
@@ -11871,7 +11887,7 @@
         <v>67</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O168" s="2" t="s">
         <v>24</v>
@@ -11923,7 +11939,7 @@
         <v>58</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O169" s="2" t="s">
         <v>24</v>
@@ -11975,7 +11991,7 @@
         <v>65</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O170" s="2" t="s">
         <v>24</v>
@@ -12027,7 +12043,7 @@
         <v>67</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O171" s="2" t="s">
         <v>24</v>
@@ -12081,7 +12097,7 @@
         <v>67</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O172" s="2" t="s">
         <v>24</v>
@@ -12133,7 +12149,7 @@
         <v>74</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O173" s="2" t="s">
         <v>24</v>
@@ -12187,7 +12203,7 @@
         <v>56</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O174" s="2" t="s">
         <v>24</v>
@@ -12239,7 +12255,7 @@
         <v>63</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O175" s="2" t="s">
         <v>24</v>
@@ -12291,7 +12307,7 @@
         <v>70</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O176" s="2" t="s">
         <v>24</v>
@@ -12343,7 +12359,7 @@
         <v>67</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O177" s="2" t="s">
         <v>24</v>
@@ -12395,7 +12411,7 @@
         <v>62</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O178" s="2" t="s">
         <v>24</v>
@@ -12449,7 +12465,7 @@
         <v>62</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O179" s="2" t="s">
         <v>24</v>
@@ -12501,7 +12517,7 @@
         <v>65</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O180" s="2" t="s">
         <v>24</v>
@@ -12553,7 +12569,7 @@
         <v>68</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="O181" s="2" t="s">
         <v>24</v>
@@ -12605,7 +12621,7 @@
         <v>70</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O182" s="2" t="s">
         <v>24</v>
@@ -12657,7 +12673,7 @@
         <v>63</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O183" s="2" t="s">
         <v>24</v>
@@ -12709,7 +12725,7 @@
         <v>63</v>
       </c>
       <c r="N184" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O184" s="2" t="s">
         <v>24</v>
@@ -12761,7 +12777,7 @@
         <v>70</v>
       </c>
       <c r="N185" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O185" s="2" t="s">
         <v>24</v>
@@ -12813,7 +12829,7 @@
         <v>64</v>
       </c>
       <c r="N186" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O186" s="2" t="s">
         <v>24</v>
@@ -12865,7 +12881,7 @@
         <v>63</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O187" s="2" t="s">
         <v>24</v>
@@ -12917,7 +12933,7 @@
         <v>60</v>
       </c>
       <c r="N188" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O188" s="2" t="s">
         <v>124</v>
@@ -12969,7 +12985,7 @@
         <v>68</v>
       </c>
       <c r="N189" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O189" s="2" t="s">
         <v>24</v>
@@ -13021,7 +13037,7 @@
         <v>66</v>
       </c>
       <c r="N190" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O190" s="2" t="s">
         <v>24</v>
@@ -13073,7 +13089,7 @@
         <v>63</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O191" s="2" t="s">
         <v>24</v>
@@ -13125,7 +13141,7 @@
         <v>65</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O192" s="2" t="s">
         <v>24</v>
@@ -13179,7 +13195,7 @@
         <v>60</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O193" s="2" t="s">
         <v>124</v>
@@ -13231,7 +13247,7 @@
         <v>67</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O194" s="2" t="s">
         <v>24</v>
@@ -13283,7 +13299,7 @@
         <v>72</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O195" s="2" t="s">
         <v>24</v>
@@ -13335,7 +13351,7 @@
         <v>70</v>
       </c>
       <c r="N196" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O196" s="2" t="s">
         <v>24</v>
@@ -13387,7 +13403,7 @@
         <v>64</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O197" s="2" t="s">
         <v>24</v>
@@ -13438,10 +13454,10 @@
         <v>780</v>
       </c>
       <c r="M198" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="N198" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="N198" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="O198" s="2" t="s">
         <v>24</v>
@@ -13493,7 +13509,7 @@
         <v>67</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O199" s="2" t="s">
         <v>24</v>
@@ -13547,7 +13563,7 @@
         <v>50</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O200" s="2" t="s">
         <v>30</v>
@@ -13599,7 +13615,7 @@
         <v>64</v>
       </c>
       <c r="N201" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O201" s="2" t="s">
         <v>24</v>
@@ -13651,7 +13667,7 @@
         <v>71</v>
       </c>
       <c r="N202" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O202" s="2" t="s">
         <v>24</v>
@@ -13757,7 +13773,7 @@
         <v>62</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O204" s="2" t="s">
         <v>24</v>
@@ -13797,7 +13813,7 @@
         <v>36</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K205" s="2" t="s">
         <v>22</v>
@@ -13809,7 +13825,7 @@
         <v>67</v>
       </c>
       <c r="N205" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O205" s="2" t="s">
         <v>24</v>
@@ -13861,7 +13877,7 @@
         <v>58</v>
       </c>
       <c r="N206" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O206" s="2" t="s">
         <v>24</v>
@@ -13913,7 +13929,7 @@
         <v>60</v>
       </c>
       <c r="N207" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O207" s="2" t="s">
         <v>24</v>
@@ -13967,7 +13983,7 @@
         <v>67</v>
       </c>
       <c r="N208" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O208" s="2" t="s">
         <v>24</v>
@@ -14021,7 +14037,7 @@
         <v>67</v>
       </c>
       <c r="N209" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O209" s="2" t="s">
         <v>24</v>
@@ -14075,7 +14091,7 @@
         <v>68</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O210" s="2" t="s">
         <v>24</v>
@@ -14129,7 +14145,7 @@
         <v>56</v>
       </c>
       <c r="N211" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O211" s="2" t="s">
         <v>24</v>
@@ -14181,7 +14197,7 @@
         <v>58</v>
       </c>
       <c r="N212" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O212" s="2" t="s">
         <v>24</v>
@@ -14233,7 +14249,7 @@
         <v>67</v>
       </c>
       <c r="N213" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O213" s="2" t="s">
         <v>24</v>
@@ -14285,7 +14301,7 @@
         <v>70</v>
       </c>
       <c r="N214" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O214" s="2" t="s">
         <v>24</v>
@@ -14339,7 +14355,7 @@
         <v>68</v>
       </c>
       <c r="N215" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O215" s="2" t="s">
         <v>30</v>
@@ -14393,7 +14409,7 @@
         <v>66</v>
       </c>
       <c r="N216" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O216" s="2" t="s">
         <v>141</v>
@@ -14447,7 +14463,7 @@
         <v>63</v>
       </c>
       <c r="N217" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O217" s="2" t="s">
         <v>24</v>
@@ -14501,7 +14517,7 @@
         <v>63</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O218" s="2" t="s">
         <v>24</v>
@@ -14553,7 +14569,7 @@
         <v>67</v>
       </c>
       <c r="N219" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O219" s="2" t="s">
         <v>24</v>
@@ -14605,7 +14621,7 @@
         <v>64</v>
       </c>
       <c r="N220" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O220" s="2" t="s">
         <v>24</v>
@@ -14657,7 +14673,7 @@
         <v>65</v>
       </c>
       <c r="N221" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O221" s="2" t="s">
         <v>24</v>
@@ -14709,7 +14725,7 @@
         <v>65</v>
       </c>
       <c r="N222" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O222" s="2" t="s">
         <v>24</v>
@@ -14761,7 +14777,7 @@
         <v>60</v>
       </c>
       <c r="N223" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O223" s="2" t="s">
         <v>24</v>
@@ -14813,7 +14829,7 @@
         <v>65</v>
       </c>
       <c r="N224" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O224" s="2" t="s">
         <v>24</v>
@@ -14865,7 +14881,7 @@
         <v>63</v>
       </c>
       <c r="N225" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O225" s="2" t="s">
         <v>24</v>
@@ -14919,7 +14935,7 @@
         <v>64</v>
       </c>
       <c r="N226" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O226" s="2" t="s">
         <v>24</v>
@@ -14973,7 +14989,7 @@
         <v>64</v>
       </c>
       <c r="N227" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O227" s="2" t="s">
         <v>24</v>
@@ -15025,7 +15041,7 @@
         <v>74</v>
       </c>
       <c r="N228" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O228" s="2" t="s">
         <v>24</v>
@@ -15079,7 +15095,7 @@
         <v>65</v>
       </c>
       <c r="N229" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O229" s="2" t="s">
         <v>24</v>
@@ -15131,7 +15147,7 @@
         <v>67</v>
       </c>
       <c r="N230" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O230" s="2" t="s">
         <v>24</v>
@@ -15183,7 +15199,7 @@
         <v>65</v>
       </c>
       <c r="N231" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O231" s="2" t="s">
         <v>24</v>
@@ -15235,7 +15251,7 @@
         <v>60</v>
       </c>
       <c r="N232" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O232" s="2" t="s">
         <v>24</v>
@@ -15287,7 +15303,7 @@
         <v>65</v>
       </c>
       <c r="N233" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O233" s="2" t="s">
         <v>24</v>
@@ -15339,7 +15355,7 @@
         <v>75</v>
       </c>
       <c r="N234" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O234" s="2" t="s">
         <v>24</v>
@@ -15391,7 +15407,7 @@
         <v>63</v>
       </c>
       <c r="N235" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O235" s="2" t="s">
         <v>24</v>
@@ -15443,7 +15459,7 @@
         <v>74</v>
       </c>
       <c r="N236" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O236" s="2" t="s">
         <v>24</v>
@@ -15497,7 +15513,7 @@
         <v>71</v>
       </c>
       <c r="N237" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O237" s="2" t="s">
         <v>24</v>
@@ -15549,7 +15565,7 @@
         <v>67</v>
       </c>
       <c r="N238" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O238" s="2" t="s">
         <v>24</v>
@@ -15603,7 +15619,7 @@
         <v>65</v>
       </c>
       <c r="N239" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O239" s="2" t="s">
         <v>24</v>
@@ -15657,7 +15673,7 @@
         <v>72</v>
       </c>
       <c r="N240" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O240" s="2" t="s">
         <v>24</v>
@@ -15709,7 +15725,7 @@
         <v>66</v>
       </c>
       <c r="N241" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O241" s="2" t="s">
         <v>24</v>
@@ -15761,7 +15777,7 @@
         <v>71</v>
       </c>
       <c r="N242" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O242" s="2" t="s">
         <v>24</v>
@@ -15813,7 +15829,7 @@
         <v>74</v>
       </c>
       <c r="N243" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O243" s="2" t="s">
         <v>24</v>
@@ -15867,7 +15883,7 @@
         <v>67</v>
       </c>
       <c r="N244" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O244" s="2" t="s">
         <v>24</v>
@@ -15919,7 +15935,7 @@
         <v>69</v>
       </c>
       <c r="N245" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O245" s="2" t="s">
         <v>141</v>
@@ -15971,7 +15987,7 @@
         <v>64</v>
       </c>
       <c r="N246" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O246" s="2" t="s">
         <v>30</v>
@@ -16023,7 +16039,7 @@
         <v>72</v>
       </c>
       <c r="N247" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O247" s="2" t="s">
         <v>141</v>
@@ -16075,7 +16091,7 @@
         <v>60</v>
       </c>
       <c r="N248" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O248" s="2" t="s">
         <v>141</v>
@@ -16127,7 +16143,7 @@
         <v>72</v>
       </c>
       <c r="N249" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O249" s="2" t="s">
         <v>141</v>
@@ -16179,7 +16195,7 @@
         <v>58</v>
       </c>
       <c r="N250" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O250" s="2" t="s">
         <v>141</v>
@@ -16231,7 +16247,7 @@
         <v>72</v>
       </c>
       <c r="N251" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O251" s="2" t="s">
         <v>141</v>
@@ -16283,7 +16299,7 @@
         <v>69</v>
       </c>
       <c r="N252" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O252" s="2" t="s">
         <v>141</v>
@@ -16335,7 +16351,7 @@
         <v>63</v>
       </c>
       <c r="N253" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O253" s="2" t="s">
         <v>24</v>
@@ -16389,7 +16405,7 @@
         <v>56</v>
       </c>
       <c r="N254" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O254" s="2" t="s">
         <v>24</v>
@@ -16443,7 +16459,7 @@
         <v>63</v>
       </c>
       <c r="N255" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O255" s="2" t="s">
         <v>24</v>
@@ -16495,7 +16511,7 @@
         <v>74</v>
       </c>
       <c r="N256" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O256" s="2" t="s">
         <v>24</v>
@@ -16549,7 +16565,7 @@
         <v>64</v>
       </c>
       <c r="N257" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O257" s="2" t="s">
         <v>24</v>
@@ -16562,7 +16578,7 @@
       </c>
       <c r="R257" s="2"/>
     </row>
-    <row r="258" spans="1:18">
+    <row r="258" spans="1:18" ht="15">
       <c r="A258" s="2" t="s">
         <v>589</v>
       </c>
@@ -16603,7 +16619,7 @@
         <v>69</v>
       </c>
       <c r="N258" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O258" s="2" t="s">
         <v>24</v>
@@ -16614,16 +16630,16 @@
       <c r="Q258" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R258" s="2" t="s">
-        <v>591</v>
+      <c r="R258" s="10" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="259" spans="1:18">
       <c r="A259" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>33</v>
@@ -16659,7 +16675,7 @@
         <v>64</v>
       </c>
       <c r="N259" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O259" s="2" t="s">
         <v>24</v>
@@ -16674,10 +16690,10 @@
     </row>
     <row r="260" spans="1:18">
       <c r="A260" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>33</v>
@@ -16713,7 +16729,7 @@
         <v>65</v>
       </c>
       <c r="N260" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O260" s="2" t="s">
         <v>24</v>
@@ -16728,10 +16744,10 @@
     </row>
     <row r="261" spans="1:18">
       <c r="A261" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>33</v>
@@ -16767,7 +16783,7 @@
         <v>56</v>
       </c>
       <c r="N261" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O261" s="2" t="s">
         <v>24</v>
@@ -16782,10 +16798,10 @@
     </row>
     <row r="262" spans="1:18">
       <c r="A262" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>503</v>
@@ -16819,7 +16835,7 @@
         <v>67</v>
       </c>
       <c r="N262" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O262" s="2" t="s">
         <v>24</v>
@@ -16833,7 +16849,10 @@
       <c r="R262" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R258" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>